--- a/medicine/Mort/Liste_d'artistes_hip-hop_assassinés/Liste_d'artistes_hip-hop_assassinés.xlsx
+++ b/medicine/Mort/Liste_d'artistes_hip-hop_assassinés/Liste_d'artistes_hip-hop_assassinés.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_d%27artistes_hip-hop_assassin%C3%A9s</t>
+          <t>Liste_d'artistes_hip-hop_assassinés</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente la liste des rappeurs hip-hop assassinés depuis 1987.
-Deux études au milieu des années 2010 ont conclu que le meurtre était la cause de 51,5% des décès de musiciens hip-hop. L'âge moyen de décès se situe entre 25 et 30 ans. Le hip-hop a un taux d'homicide plus élevé que tout autre genre de musique, allant de cinq à 32 fois plus élevé[1],[2].
-Plusieurs facteurs peuvent expliquer le taux élevé d'homicides, notamment les antécédents difficiles de nombreux artistes, l'activité des gangs criminels, la consommation de drogue et l'insuffisance des soins pastoraux parmi les artistes et les maisons de disques[3],[4],[5]. En 2020, d'après le magazine XXL, sur 77 décès de rappeurs répertoriés, plus de 40 restent non résolus, dont le meurtre de Tupac Shakur en 1996, le meurtre de Notorious BIG en 1997 et le meurtre de Big L en 1999[6].
-Les homicides de musiciens hip-hop ont suscité plusieurs controverses ; le maire de New York, Eric Adams, condamna la musique drill en 2022 après le meurtre de Tdott Woo (Tahjay Dobson) et Chii Wvttz (Jayquan Mckenley), assassinés à Brooklyn la même année[4].
+Deux études au milieu des années 2010 ont conclu que le meurtre était la cause de 51,5% des décès de musiciens hip-hop. L'âge moyen de décès se situe entre 25 et 30 ans. Le hip-hop a un taux d'homicide plus élevé que tout autre genre de musique, allant de cinq à 32 fois plus élevé,.
+Plusieurs facteurs peuvent expliquer le taux élevé d'homicides, notamment les antécédents difficiles de nombreux artistes, l'activité des gangs criminels, la consommation de drogue et l'insuffisance des soins pastoraux parmi les artistes et les maisons de disques. En 2020, d'après le magazine XXL, sur 77 décès de rappeurs répertoriés, plus de 40 restent non résolus, dont le meurtre de Tupac Shakur en 1996, le meurtre de Notorious BIG en 1997 et le meurtre de Big L en 1999.
+Les homicides de musiciens hip-hop ont suscité plusieurs controverses ; le maire de New York, Eric Adams, condamna la musique drill en 2022 après le meurtre de Tdott Woo (Tahjay Dobson) et Chii Wvttz (Jayquan Mckenley), assassinés à Brooklyn la même année.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_d%27artistes_hip-hop_assassin%C3%A9s</t>
+          <t>Liste_d'artistes_hip-hop_assassinés</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Liste</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Voici une liste (non exhaustive) d'artistes de hip-hop assassinés depuis le début des années 1980.
 </t>
